--- a/Output_testing/R1_201907/Country/HKD/MN/MACAU SAR_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MACAU SAR_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>4030.217392</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>9.793347208205837</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>4389.158511</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>10.24460369652169</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>4844.362281</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>9.816488308520645</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>3515.447286</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>11.86189647147079</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>32.03610805233621</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>3086.187567</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.499373719460893</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>3645.294861</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>8.508373783794779</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>4994.274063</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>10.12026560054611</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>3320.667961</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>11.20466795971521</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>15.22968518361563</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>4425.226653</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>10.75321176814464</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>4690.757852</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>10.94855770409139</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>5941.374608</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>12.03944523404513</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>3281.532069</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>11.0726148064589</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-5.612835249804593</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>3023.072413</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>7.346005164591289</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>2623.671515</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>6.123833266368827</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>3895.055907</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>7.892838841154328</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2030.755876</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.852219362205784</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-21.16684186676383</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>2185.687829</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>5.311177466663721</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>2480.426357</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>5.789489024419522</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>3274.790007</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>6.635948335792053</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1948.286986</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>6.573951091993664</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-0.8538706118684902</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1241.26694</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.016253700263721</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1427.074629</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.33089223887128</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1846.55259</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.741805599861477</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1157.463378</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.905537373304497</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>14.74991460477373</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1846.301808</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>4.486476261249331</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1881.208454</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.390872426565744</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1777.888358</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.602666206161464</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1110.051815</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.74556027619475</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>3.781689086959017</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>2410.474249</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>5.857403946436103</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>2438.70571</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>5.692110109211446</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>2263.489542</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>4.58667567300831</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1057.598401</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.568570858967234</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-25.07416052279935</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1218.434009</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.960770137141822</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1212.724835</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.830584791223244</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1382.192612</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.800838754161213</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1029.760207</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.474638636886769</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>33.58530140530422</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1227.138338</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.981921481553333</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1211.259303</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.827164136784142</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1166.927009</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.364630198214828</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>744.147317</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.51091759188926</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>4.070512470210375</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>16458.596772</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>39.9940591462893</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>16843.332436</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>39.31351882214793</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>17962.332066</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>36.39839724853445</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>10440.757834</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>35.22942557091314</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>1.528247890297196</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,433 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>310.028091</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>18.78048873894171</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>640.162332</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>31.02798906064188</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>484.504057</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>25.95146956210296</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>474.534886</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>37.90366413559574</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>85.25721745072148</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>244.988296</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>14.8405904747532</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>288.186272</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>13.96808285658889</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>331.98853</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>17.78228707641617</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>200.722725</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>16.03280807637301</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>0.7204813763473705</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>191.911543</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>11.62537420579875</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>211.969882</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>10.27395529401682</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>186.183694</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>9.972549038533421</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>112.952213</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>9.022103266237567</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>4.686562939808758</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>110.914164</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>6.71881764414417</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>129.986618</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>6.300313466950184</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>129.332902</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>6.927452559249561</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>80.812951</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>6.454966837802428</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>9.32902824572821</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>146.766365</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>8.890626833998438</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>141.49604</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>6.858162940527632</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>143.254233</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>7.673120201224457</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>77.235088</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>6.169183597252281</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>5.215426074651042</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>131.993935</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>7.995761293372944</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>131.968442</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>6.396370373641341</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>124.444026</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>6.665589908413398</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>61.399939</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>4.904344726726933</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-20.84357447464189</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OTHER INORGANIC CHEMICALS; ORGANIC AND INORGANIC COMPOUNDS OF PRECIOUS METALS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>53.860589</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>3.262698492657776</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>51.792509</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>2.51032796268181</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>54.459511</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.917012399926119</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>35.770524</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>2.857184935503913</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>20.71540088956869</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>48.25969</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>2.923414332121982</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>49.55343</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>2.401802179071797</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>50.154398</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>2.686417821063979</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>29.664872</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>2.369493535852364</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>1.384373451267118</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>79.282116</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>4.80265153372012</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>112.083379</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>5.432562466814711</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>51.673657</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>2.767793824269357</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>23.013558</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.838217165338298</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-35.75716467647023</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>32.948824</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.995932097950996</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>34.175931</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.656471117087301</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>31.068853</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>1.664139611031061</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>20.926598</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.671520399224409</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>7.125456572992506</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>299.845231</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>18.1636443525399</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>271.802159</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>13.17396228197764</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>279.898069</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>14.99216799776951</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>134.916548</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>10.77651332409306</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-13.92611283856965</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1726,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>3081.939163</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>7.802021080225203</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>3639.257427</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>8.924027432924055</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>4986.378036</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>10.5015562419916</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>3318.302873</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>11.69053752979071</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>15.33474896538436</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>4425.226653</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>11.20259349891665</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>4690.757852</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>11.50247065290991</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>5941.374608</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.51282577257301</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>3281.532069</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>11.56099225299868</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-5.612835249804593</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>3720.189301</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>9.417770375641339</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>3748.996179</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>9.193123987082945</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>4359.858224</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>9.182074847893784</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>3040.9124</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>10.71327781025187</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>26.37084709710354</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>3023.063163</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>7.652974726996025</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>2623.633346</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>6.433558610042875</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>3894.784183</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>8.202606150777173</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2030.755876</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>7.154448732028388</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-21.16180666207713</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>2185.491419</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>5.532636830212892</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2480.265715</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>6.081998793871252</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>3274.785931</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>6.8968594812893</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1948.286086</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>6.863903772159392</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-0.853892950587809</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1241.26694</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.142304347967634</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1427.074629</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.499409809139044</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1846.55259</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.888930148833235</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1157.463378</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.077798072613527</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>14.74991460477373</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1218.391509</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.084394510867701</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1212.724835</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.973790646365368</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1381.802612</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.91014394425848</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1029.760207</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.627893778042891</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>33.65291992011228</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>2299.560085</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>5.821405066591335</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>2308.719092</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>5.661339689538679</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>2134.15664</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.494638357214964</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>976.78545</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.441261210570186</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-26.97530339593058</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1601.313512</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>4.053773003264651</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1593.022182</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.90633911961088</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1445.899828</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.045135818905644</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>909.32909</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.203609272701682</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>4.482651369893897</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1219.42861</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.08701996303803</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1202.35193</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.948354663713428</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1154.448827</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.431325743398114</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>736.728331</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.595528658006129</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>3.920862641512457</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>15485.934771</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>39.20310659627854</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>15853.634282</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>38.87558659480157</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>17062.235634</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>35.93390349286469</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>9954.663468000001</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>35.07074891083655</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>1.941499119909951</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2184,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1521.510038</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>22.34321576155493</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1684.447928</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>23.54311032965242</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>1491.585566</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>20.16768122733218</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>1774.959948</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>31.99244231123214</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>134.8004449022496</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1599.879547</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>23.49406380394827</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>1721.739283</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>24.06432233657367</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1920.033351</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>25.96071016740745</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1015.777712</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>18.30870036747183</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-2.899984740108141</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>110.769337</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.62663612762533</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>126.488222</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>1.767894463489505</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>351.552021</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>4.753323748878639</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>379.222285</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>6.835223008646802</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>325.2123514866062</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>242.079696</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>3.554915014776673</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>403.319247</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>5.63709294443285</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>695.084344</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>9.398213414932778</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>270.898665</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>4.882763648818007</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-31.43834437075131</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>288.303478</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>4.233706418544644</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>307.230712</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.294087355886294</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>299.128102</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.044501599362422</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>223.450098</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.027535594681581</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>27.65103096942902</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>210.173133</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>3.086370474475292</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>102.744637</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.436036273049509</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>91.92469199999999</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.242910851000211</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>218.735126</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.942551440600221</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>308.9673540527634</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>230.333193</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>3.382418846879059</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>244.318894</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.414784500872178</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>229.890534</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.108342633890283</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>175.786592</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.168433411686257</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>22.89559721185807</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>212.383843</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.118834519590076</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>193.509758</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.704637826274401</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>157.905036</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.135028993863575</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>149.702742</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.698289807984033</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>76.65227207123509</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>154.533382</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.269306550831174</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>159.762929</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.232966778914537</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>137.072592</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.853354177912555</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>145.323667</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.619359968202623</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>95.3911139433951</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>230.833995</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>3.389773071866314</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>253.043108</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>3.536720673149922</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>216.515864</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.927504144145363</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>112.992245</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.036608140849784</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-12.07707385803138</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>2008.918593</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>29.50075940990824</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1958.133566</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>27.36834651770471</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1805.227881</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>24.40842904127456</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>1081.211086</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>19.48809229982673</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-1.053577965365837</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
